--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -453,332 +453,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3856421568627451</v>
+        <v>0.2064779411764706</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2324950980392157</v>
+        <v>0.1735612745098039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.479735294117647</v>
+        <v>0.3895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.43225</v>
+        <v>0.3362867647058824</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3408406862745098</v>
+        <v>0.3067696078431372</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5789166666666666</v>
+        <v>0.5195882352941177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4791568627450981</v>
+        <v>0.4149338235294118</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4500049019607843</v>
+        <v>0.391875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6739191176470588</v>
+        <v>0.6021593137254901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.531436274509804</v>
+        <v>0.5074950980392157</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5306593137254902</v>
+        <v>0.4892401960784313</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7496642156862745</v>
+        <v>0.6894436274509803</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5928186274509804</v>
+        <v>0.6007745098039216</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6031421568627452</v>
+        <v>0.5850220588235294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8246127450980393</v>
+        <v>0.7786960784313726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6619877450980391</v>
+        <v>0.692828431372549</v>
       </c>
       <c r="B7" t="n">
-        <v>0.674531862745098</v>
+        <v>0.6791078431372549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9038039215686274</v>
+        <v>0.8841127450980392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4060294117647059</v>
+        <v>0.3784313725490196</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5025416666666667</v>
+        <v>0.4965049019607843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3434705882352941</v>
+        <v>0.3993995098039216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3722450980392157</v>
+        <v>0.3002009803921569</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6102573529411764</v>
+        <v>0.6673357843137255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8181495098039216</v>
+        <v>0.8262230392156862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6165416666666667</v>
+        <v>0.5583553921568628</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3981789215686274</v>
+        <v>0.3384191176470588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6011764705882353</v>
+        <v>0.5243848039215686</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.612360294117647</v>
+        <v>0.5708308823529411</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4967573529411765</v>
+        <v>0.4169901960784314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7393676470588235</v>
+        <v>0.6438627450980392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5214632352941176</v>
+        <v>0.5344950980392157</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5830490196078432</v>
+        <v>0.5383455882352941</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6023504901960784</v>
+        <v>0.5655441176470588</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3208333333333334</v>
+        <v>0.1142622549019608</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4484558823529412</v>
+        <v>0.3290759803921569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8768897058823529</v>
+        <v>0.7607549019607843</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4649730392156863</v>
+        <v>0.3078725490196078</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4196200980392157</v>
+        <v>0.3881911764705882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6260955882352941</v>
+        <v>0.5434019607843137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.6098357843137255</v>
+        <v>0.3410833333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3801176470588236</v>
+        <v>0.1179730392156863</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8878333333333334</v>
+        <v>0.8822279411764705</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5995318627450981</v>
+        <v>0.4576274509803921</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3078406862745098</v>
+        <v>0.2244093137254902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5064117647058823</v>
+        <v>0.3976004901960785</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5882622549019608</v>
+        <v>0.5385857843137255</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4858553921568627</v>
+        <v>0.4070171568627451</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6114656862745098</v>
+        <v>0.5304901960784314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7251225490196078</v>
+        <v>0.6968063725490196</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5581299019607844</v>
+        <v>0.4539411764705882</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3048946078431373</v>
+        <v>0.3411397058823529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1851593137254902</v>
+        <v>0.1335612745098039</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6423308823529412</v>
+        <v>0.6195563725490196</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9429411764705882</v>
+        <v>0.8517745098039216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4978210784313725</v>
+        <v>0.3082156862745098</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3830661764705883</v>
+        <v>0.3193995098039216</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6970171568627451</v>
+        <v>0.6053308823529412</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5607720588235293</v>
+        <v>0.3077867647058823</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4790588235294118</v>
+        <v>0.3195196078431373</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8927720588235295</v>
+        <v>0.8693382352941177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5404068627450981</v>
+        <v>0.355703431372549</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3375098039215686</v>
+        <v>0.2256421568627451</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6554460784313725</v>
+        <v>0.5244558823529413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5583823529411764</v>
+        <v>0.4493063725490196</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5423259803921568</v>
+        <v>0.4367916666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8400220588235294</v>
+        <v>0.7429950980392157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5824632352941176</v>
+        <v>0.4688700980392157</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5932867647058824</v>
+        <v>0.4852916666666667</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9190833333333334</v>
+        <v>0.8453553921568628</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.3484656862745098</v>
+        <v>0.1550171568627451</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5668480392156863</v>
+        <v>0.4519240196078431</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9259950980392156</v>
+        <v>0.8030612745098039</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4859656862745098</v>
+        <v>0.2437205882352941</v>
       </c>
       <c r="B26" t="n">
-        <v>0.355828431372549</v>
+        <v>0.2374019607843137</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7201960784313726</v>
+        <v>0.5978676470588236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5277009803921568</v>
+        <v>0.1762254901960784</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4217941176470588</v>
+        <v>0.1852058823529412</v>
       </c>
       <c r="C27" t="n">
-        <v>0.921796568627451</v>
+        <v>0.9016078431372548</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5716421568627451</v>
+        <v>0.3827181372549019</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4716200980392157</v>
+        <v>0.3314264705882353</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8177328431372549</v>
+        <v>0.6996544117647059</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5903259803921569</v>
+        <v>0.4351911764705882</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5404289215686274</v>
+        <v>0.406203431372549</v>
       </c>
       <c r="C29" t="n">
-        <v>0.874671568627451</v>
+        <v>0.7666151960784313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5636838235294117</v>
+        <v>0.4291936274509804</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5859460784313725</v>
+        <v>0.4737867647058823</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8991960784313725</v>
+        <v>0.7883406862745098</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5351862745098039</v>
+        <v>0.4073480392156863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6182524509803921</v>
+        <v>0.5060588235294117</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9038039215686274</v>
+        <v>0.7690784313725491</v>
       </c>
     </row>
   </sheetData>
